--- a/jpcore-r4b/develop/CodeSystem-jp-microbiology-infectious-agent-cs.xlsx
+++ b/jpcore-r4b/develop/CodeSystem-jp-microbiology-infectious-agent-cs.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.392.100495.10.3.100.5.27.6.1</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:1.2.392.100495.10.3.100.5.27.6.1</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-dev</t>
   </si>
   <si>
     <t>Name</t>
